--- a/HyperRail/Admin/JuniorDesign_SystemVerification (version 1).xlsb.xlsx
+++ b/HyperRail/Admin/JuniorDesign_SystemVerification (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Brusind\Documents\GitHub\PersonalProjects\HyperRail\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FE0C55-338E-4740-93DB-02B6C50FF52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C09F1-1A23-43C7-B472-07A098B94C73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="19170" windowHeight="10170" activeTab="2" xr2:uid="{D8F5391A-C4FB-4A41-B72E-AA830B05E3FF}"/>
+    <workbookView xWindow="28680" yWindow="-2370" windowWidth="25440" windowHeight="15390" xr2:uid="{D8F5391A-C4FB-4A41-B72E-AA830B05E3FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 7" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Group 11" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t xml:space="preserve">Rubric </t>
   </si>
@@ -52,48 +51,6 @@
     <t>Documentation present? (0 or 25 pts)</t>
   </si>
   <si>
-    <t>Kevin Ho</t>
-  </si>
-  <si>
-    <t>Benson T</t>
-  </si>
-  <si>
-    <t>Max F</t>
-  </si>
-  <si>
-    <t>Anthony N</t>
-  </si>
-  <si>
-    <t>Ben C</t>
-  </si>
-  <si>
-    <t>Triet N</t>
-  </si>
-  <si>
-    <t>Ryan C</t>
-  </si>
-  <si>
-    <t>Ryan Dillard</t>
-  </si>
-  <si>
-    <t>Rene N</t>
-  </si>
-  <si>
-    <t>Zachery M</t>
-  </si>
-  <si>
-    <t>Orion H</t>
-  </si>
-  <si>
-    <t>Kyle Barton</t>
-  </si>
-  <si>
-    <t>Michael G</t>
-  </si>
-  <si>
-    <t>Sam B</t>
-  </si>
-  <si>
     <t>For each requirement, does a video exist and is viewable? (0 or 5 pts each)</t>
   </si>
   <si>
@@ -110,6 +67,66 @@
   </si>
   <si>
     <t>Team unable to show movement for the stepper motors on the actual system, but can show in theory it would move if PCB power supply were operating properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, for all requirements either a video is provided or the demonstration was done in person </t>
+  </si>
+  <si>
+    <t>For all videos the requirements were shown to at least be partly met</t>
+  </si>
+  <si>
+    <t>The demonstrations show that all the requirements have been met in full</t>
+  </si>
+  <si>
+    <t>Documentation is present for this group's implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The documentation is of high quality and accurately describes the operation and function of the systems blocks. </t>
+  </si>
+  <si>
+    <t>Extra credit for being the only group to get the full system working (both x,y axis control)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes there is a video that exists for all requirements </t>
+  </si>
+  <si>
+    <t>For all requirements there exists a video that shows the requirement is at least met partially</t>
+  </si>
+  <si>
+    <t>There exists documentation for the system</t>
+  </si>
+  <si>
+    <t>The documentation is of high quality and accurately describes the systems functions and how each block works / was designed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There exists a video for all requirements </t>
+  </si>
+  <si>
+    <t>For all requirements there exists a video that shows at least partial funtionality according to the requirement language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stepper accuracy and timing could not be proven completely, but was able to be proven in theory using GRBL documenation and live example </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation is available for the system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The documentation is of high quality and has sufficient detail for the implementation </t>
+  </si>
+  <si>
+    <t>For all requirements there exists a video demonstrating the requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each requirement the video demonstrates at least partial completion of the requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The documentation that is available was shown to be of high quality and sufficient detail for the group's implementation </t>
+  </si>
+  <si>
+    <t>All requirements were able to be met for the system. Some issues with the PCB and dual motor control, but otherwise the requirements were met</t>
   </si>
 </sst>
 </file>
@@ -597,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E33F50-261D-49DC-83B2-0B7607276124}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -628,27 +645,13 @@
       <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="27" t="s">
         <v>1</v>
       </c>
@@ -658,29 +661,24 @@
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8">
         <v>35</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="9">
-        <v>35</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="11">
-        <v>35</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="28"/>
       <c r="O2" s="29">
         <v>35</v>
@@ -688,29 +686,24 @@
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="7">
         <v>70</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="8">
+        <v>70</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="9">
-        <v>70</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="11">
-        <v>70</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="11"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="28"/>
       <c r="O3" s="29">
         <v>70</v>
@@ -718,29 +711,24 @@
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="7">
-        <v>70</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>20</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D4" s="8">
+        <v>70</v>
+      </c>
+      <c r="E4" s="35"/>
       <c r="F4" s="36"/>
-      <c r="G4" s="9">
-        <v>70</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11">
-        <v>70</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="K4" s="11"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="28"/>
       <c r="O4" s="29">
         <v>70</v>
@@ -750,27 +738,22 @@
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="7">
         <v>25</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="42">
+        <v>25</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="9">
-        <v>25</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="11">
-        <v>25</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29">
         <v>25</v>
@@ -778,29 +761,24 @@
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="13">
+        <v>90</v>
+      </c>
+      <c r="D6" s="14">
         <v>100</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="16">
-        <v>100</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="16"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <v>100</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="30"/>
       <c r="O6" s="31">
         <v>100</v>
@@ -808,29 +786,19 @@
     </row>
     <row r="7" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="4">
-        <v>25</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="41"/>
       <c r="O7" s="32">
         <v>25</v>
@@ -838,17 +806,15 @@
     </row>
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
+      <c r="B9" s="5"/>
+      <c r="C9">
+        <f>SUM(C2:C6)</f>
+        <v>265</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -860,7 +826,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -890,27 +856,13 @@
       <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="27" t="s">
         <v>1</v>
       </c>
@@ -920,29 +872,24 @@
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="7">
         <v>35</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="8">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="9">
-        <v>35</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="11">
-        <v>35</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="28"/>
       <c r="O2" s="29">
         <v>35</v>
@@ -950,29 +897,24 @@
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="7">
         <v>70</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="8">
+        <v>70</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="9">
-        <v>70</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="11">
-        <v>70</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="11"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="28"/>
       <c r="O3" s="29">
         <v>70</v>
@@ -980,29 +922,24 @@
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="7">
         <v>70</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>20</v>
-      </c>
+      <c r="D4" s="8">
+        <v>70</v>
+      </c>
+      <c r="E4" s="35"/>
       <c r="F4" s="36"/>
-      <c r="G4" s="9">
-        <v>70</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11">
-        <v>70</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="K4" s="11"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="28"/>
       <c r="O4" s="29">
         <v>70</v>
@@ -1012,27 +949,22 @@
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="7">
         <v>25</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="42">
+        <v>25</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="9">
-        <v>25</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="11">
-        <v>25</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29">
         <v>25</v>
@@ -1040,29 +972,24 @@
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="13">
+        <v>90</v>
+      </c>
+      <c r="D6" s="14">
         <v>100</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="16">
-        <v>100</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="16"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <v>100</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="30"/>
       <c r="O6" s="31">
         <v>100</v>
@@ -1070,29 +997,21 @@
     </row>
     <row r="7" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="4">
-        <v>25</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="41"/>
       <c r="O7" s="32">
         <v>25</v>
@@ -1101,16 +1020,19 @@
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C7)</f>
+        <v>305</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1122,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125DA6F1-2F27-48E3-A13D-321396200580}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1153,236 +1075,150 @@
       <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="7">
         <v>35</v>
       </c>
       <c r="D2" s="8">
         <v>35</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="9">
-        <v>35</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="11">
-        <v>35</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="28"/>
-      <c r="O2" s="29">
-        <v>35</v>
-      </c>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="7">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8">
         <v>70</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="9">
-        <v>70</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="11">
-        <v>70</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="11"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="28"/>
-      <c r="O3" s="29">
-        <v>70</v>
-      </c>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8">
         <v>70</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="35"/>
       <c r="F4" s="36"/>
-      <c r="G4" s="9">
-        <v>70</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11">
-        <v>70</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="K4" s="11"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="29">
-        <v>70</v>
-      </c>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="7">
         <v>25</v>
       </c>
       <c r="D5" s="42">
         <v>25</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>3</v>
-      </c>
+      <c r="E5" s="35"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="9">
-        <v>25</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="11">
-        <v>25</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="28"/>
-      <c r="O5" s="29">
-        <v>25</v>
-      </c>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D6" s="14">
         <v>100</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="16">
-        <v>100</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="16"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <v>100</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="30"/>
-      <c r="O6" s="31">
-        <v>100</v>
-      </c>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="4">
-        <v>25</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="32">
-        <v>25</v>
-      </c>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <f>SUM(C2:C6)</f>
-        <v>270</v>
-      </c>
       <c r="D8">
         <f>SUM(D2:D6)</f>
         <v>300</v>
@@ -1391,24 +1227,17 @@
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <f>C8/D8</f>
-        <v>0.9</v>
+        <f>SUM(C2:C6)</f>
+        <v>280</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1420,7 +1249,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1450,231 +1279,164 @@
       <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="7">
         <v>35</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="8">
+        <v>35</v>
+      </c>
+      <c r="E2" s="35"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="9">
-        <v>35</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>18</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="11">
-        <v>35</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="28"/>
-      <c r="O2" s="29">
-        <v>35</v>
-      </c>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="7">
         <v>70</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="8">
+        <v>70</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="9">
-        <v>70</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="11">
-        <v>70</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="K3" s="11"/>
+      <c r="M3" s="40"/>
       <c r="N3" s="28"/>
-      <c r="O3" s="29">
-        <v>70</v>
-      </c>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="7">
-        <v>70</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D4" s="8">
+        <v>70</v>
+      </c>
+      <c r="E4" s="35"/>
       <c r="F4" s="36"/>
-      <c r="G4" s="9">
-        <v>70</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11">
-        <v>70</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="K4" s="11"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="29">
-        <v>70</v>
-      </c>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="7">
         <v>25</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="42">
+        <v>25</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="9">
-        <v>25</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="11">
-        <v>25</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="28"/>
-      <c r="O5" s="29">
-        <v>25</v>
-      </c>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="13">
+        <v>90</v>
+      </c>
+      <c r="D6" s="14">
         <v>100</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>21</v>
-      </c>
+      <c r="E6" s="35"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="16">
-        <v>100</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="G6" s="16"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="18">
-        <v>100</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="30"/>
-      <c r="O6" s="31">
-        <v>100</v>
-      </c>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="3">
-        <v>25</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="39"/>
-      <c r="K7" s="4">
-        <v>25</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="32">
-        <v>25</v>
-      </c>
+      <c r="O7" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C7)</f>
+        <v>285</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="M9" s="32"/>
-      <c r="N9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
